--- a/Auto_mrkr/仕様書.xlsx
+++ b/Auto_mrkr/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Auto_mrkr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339CB23C-D0B0-4BF6-9334-0A122E454C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE5FC2D-2871-463A-904B-B86C53BCFE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ツール情報" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>■機能</t>
     <rPh sb="1" eb="3">
@@ -397,6 +397,94 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※配置は、このようにお願いします。</t>
+    <rPh sb="1" eb="3">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⇒メルカリブラウザをctrl + ←</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⇒ツール（黒い画面）をctrl + →</t>
+    <rPh sb="5" eb="6">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツール利用期限は、基本月単位の仕様になっております。</t>
+    <rPh sb="3" eb="7">
+      <t>リヨウキゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※翌月5日のAM9時まで有効</t>
+    <rPh sb="1" eb="3">
+      <t>ヨクゲツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※有効期限が過ぎると、下記画面が表示されます。</t>
+    <rPh sb="1" eb="3">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ツール有効期限</t>
+    <rPh sb="4" eb="8">
+      <t>ユウコウキゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -466,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -475,6 +563,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -498,13 +587,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>163088</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>86041</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -542,13 +631,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -622,13 +711,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -702,13 +791,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -782,13 +871,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>354786</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>49374</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -831,13 +920,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -897,13 +986,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -981,13 +1070,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1029,13 +1118,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>354786</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>39849</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1078,13 +1167,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1138,6 +1227,99 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>146248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>283620</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>32542</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647BB4CB-0413-4D97-8669-730B03A9D266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="13957498"/>
+          <a:ext cx="6446295" cy="3458169"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>134513</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>66991</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C140273-FEC3-481D-8170-353C0CFAE308}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="14049375"/>
+          <a:ext cx="2877713" cy="781366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1408,7 +1590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -1457,137 +1639,168 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB0CF69-A17C-4001-A4E4-EDDA267FF8CE}">
-  <dimension ref="C2:F79"/>
+  <dimension ref="C2:F110"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
         <v>9</v>
       </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
         <v>9</v>
       </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="F47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="49" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C64" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C73" t="s">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C104" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C75" t="s">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C106" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C77" t="s">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C108" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C79" s="5" t="s">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C110" s="5" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Auto_mrkr/仕様書.xlsx
+++ b/Auto_mrkr/仕様書.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Auto_mrkr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE5FC2D-2871-463A-904B-B86C53BCFE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A0C1F0-E8D1-4950-AF96-503349DA1E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ツール情報" sheetId="1" r:id="rId1"/>
     <sheet name="ツール説明" sheetId="2" r:id="rId2"/>
+    <sheet name="マウスポジション" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>■機能</t>
     <rPh sb="1" eb="3">
@@ -485,6 +486,130 @@
     <t>■ツール有効期限</t>
     <rPh sb="4" eb="8">
       <t>ユウコウキゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポジション取得</t>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⇒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウスのポジション（カーソルの座標）を取得</t>
+    <rPh sb="15" eb="17">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※取得詳細については、マウスポジションシート参照してください。</t>
+    <rPh sb="1" eb="3">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■マウスポジション（座標）取得</t>
+    <rPh sb="10" eb="12">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①ポジション取得ボタンを押下</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②10秒後に現在マウスが当たっている座標を取得し、黒い画面に表示されます。</t>
+    <rPh sb="3" eb="5">
+      <t>ビョウゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③、②で表示された座標をconfigフォルダーのconfig.iniのxとyに記載します。</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※これにより、パソコンのサイズ感が変わっても、メルカリの仕様が変わらなければマウス位置はいつでも変更可能になります。</t>
+    <rPh sb="15" eb="16">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -586,22 +711,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>163088</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>401598</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>86041</xdr:rowOff>
+      <xdr:rowOff>66991</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AED242E-0317-4C38-8FEA-0F05D7BE1C88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02DE7B37-56F5-4489-991C-48FD27EE7588}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -617,8 +742,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1400175" y="2638425"/>
-          <a:ext cx="2877713" cy="781366"/>
+          <a:off x="1371600" y="2143125"/>
+          <a:ext cx="3830598" cy="781366"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -790,15 +915,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
+      <xdr:colOff>447676</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -813,7 +938,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3619501" y="1438275"/>
+          <a:off x="3648076" y="2847975"/>
           <a:ext cx="228600" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1070,13 +1195,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1118,13 +1243,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>354786</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>39849</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1167,13 +1292,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1233,13 +1358,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>146248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>283620</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>32542</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1282,13 +1407,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>134513</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>66991</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1320,6 +1445,980 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="楕円 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49B2CF11-C83A-438D-8E45-6372F01CEAB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648201" y="2828925"/>
+          <a:ext cx="228600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401598</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66991</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479D704D-3BCD-4FAB-B477-02E3A979500A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="714375"/>
+          <a:ext cx="3830598" cy="781366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4D93575-69A3-4655-A93B-12DEF3695A82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571875" y="1114425"/>
+          <a:ext cx="876300" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>3605</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>116272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B1FED3F-2903-4449-9EC4-105B0FBC140B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2857500"/>
+          <a:ext cx="8919005" cy="4878772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE77135-AD05-4DF3-B504-99113A62FA2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="3152775"/>
+          <a:ext cx="990600" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>420379</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>67280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93FD423-00A3-4C20-8837-DD8AF36C7936}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="8572500"/>
+          <a:ext cx="3163579" cy="1496030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>30936</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>116049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5B275BE-3DD3-4E48-BBE2-3AFDD0A7D1CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7219950" y="8410575"/>
+          <a:ext cx="5841186" cy="4326099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E324FF-F323-4B6A-A88E-152529DF960C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952499" y="8943975"/>
+          <a:ext cx="1400175" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9908C67B-284F-4064-97A6-F4413137D232}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9039225" y="11906250"/>
+          <a:ext cx="85726" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6B4FA7-50D3-479B-8567-136EC7ABD55F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352674" y="9096375"/>
+          <a:ext cx="6686551" cy="2962275"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3318C788-864A-43AE-80A4-1339A53242A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9067800" y="12372975"/>
+          <a:ext cx="4257675" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>文字の先頭にマウスを置いて座標を取得してください。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>横へドラッグする長さは、プログラム上で対応しています。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>125366</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93985EFD-7D3D-44E8-8DE2-EEC69DF40D3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="11668125"/>
+          <a:ext cx="5343525" cy="5125991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E539C0B-8C04-4C9D-9DDB-5C70202F0B63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923924" y="9477375"/>
+          <a:ext cx="1400175" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E671CAAC-55EB-4D73-B2C8-B18606E1278C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="12411075"/>
+          <a:ext cx="5181600" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC6F24FF-33AD-4A5D-98B4-F375BA1E9318}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1624012" y="9782174"/>
+          <a:ext cx="1738313" cy="2628901"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D24C654-DC03-4DE9-B756-49EF42D86BCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="13315951"/>
+          <a:ext cx="5667375" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>下書き一覧一番上で、クリックした場所の座標をしていて、ここに記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1639,7 +2738,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB0CF69-A17C-4001-A4E4-EDDA267FF8CE}">
-  <dimension ref="C2:F110"/>
+  <dimension ref="C2:G112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1742,66 +2841,126 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C51" t="s">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C53" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C53" t="s">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C55" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C54" t="s">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C56" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C56" t="s">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C58" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C64" t="s">
-        <v>26</v>
-      </c>
-    </row>
+    <row r="64" spans="3:7" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="66" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C66" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C67" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C70" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C104" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C108" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C110" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C110" s="5" t="s">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C112" s="5" t="s">
         <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2106142D-82AA-4EE0-AA92-E0E50F294B24}">
+  <dimension ref="B2:B73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B73" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Auto_mrkr/仕様書.xlsx
+++ b/Auto_mrkr/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Auto_mrkr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A0C1F0-E8D1-4950-AF96-503349DA1E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E19C63B-8C34-45C9-95E6-D5DA8F0C19EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ツール情報" sheetId="1" r:id="rId1"/>
@@ -76,29 +76,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>時のみ指定可能</t>
-    <rPh sb="0" eb="1">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※分については、「00」固定になります。</t>
-    <rPh sb="1" eb="2">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>（例）</t>
     <rPh sb="1" eb="2">
       <t>レイ</t>
@@ -116,13 +93,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>稼働時間</t>
-    <rPh sb="0" eb="4">
-      <t>カドウジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>②</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -610,6 +580,66 @@
     </rPh>
     <rPh sb="50" eb="52">
       <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時分指定可能</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ツールを途中で停止する場合</t>
+    <rPh sb="5" eb="7">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒い画面でctrl + cを押すと、上記赤枠の英文が表示され、ツールが再度使えるようになります。</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>アカワク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>エイブン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -712,21 +742,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>401598</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66991</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>534448</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>67954</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
+        <xdr:cNvPr id="19" name="図 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02DE7B37-56F5-4489-991C-48FD27EE7588}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56F981D1-091D-4233-87FF-9054C33AEC56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -742,8 +772,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="2143125"/>
-          <a:ext cx="3830598" cy="781366"/>
+          <a:off x="1371600" y="1905000"/>
+          <a:ext cx="2591848" cy="3163579"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -754,16 +784,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -778,7 +808,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2114551" y="1409700"/>
+          <a:off x="2038351" y="2114550"/>
           <a:ext cx="228600" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -835,15 +865,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -858,7 +888,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3000376" y="1419225"/>
+          <a:off x="3124201" y="2095500"/>
           <a:ext cx="228600" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -914,16 +944,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -938,7 +968,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3648076" y="2847975"/>
+          <a:off x="1828801" y="4705350"/>
           <a:ext cx="228600" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -996,13 +1026,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>354786</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>49374</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1045,13 +1075,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1111,13 +1141,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1195,13 +1225,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1243,13 +1273,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>354786</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>39849</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1292,13 +1322,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1358,13 +1388,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>146248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>283620</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>32542</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1407,13 +1437,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>134513</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>66991</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1449,16 +1479,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1473,7 +1503,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4648201" y="2828925"/>
+          <a:off x="3114676" y="4705350"/>
           <a:ext cx="228600" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1527,6 +1557,431 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE0A28D1-75EA-4352-B488-5031FA1D436C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="2324100"/>
+          <a:ext cx="1028700" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9E7A39D-91F5-44D3-B4BE-D2CE12286A46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2676525" y="2324100"/>
+          <a:ext cx="1028700" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>212071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B47C9A5-50B3-4BB1-9945-E73A547F6DC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5648325" y="19650075"/>
+          <a:ext cx="1047750" cy="1278871"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA61C7D-10CD-482D-951C-81DFD55BA559}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562601" y="19592925"/>
+          <a:ext cx="1247774" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="吹き出し: 線 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E367FD3-1304-44C8-8265-302F0B59CD8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7553325" y="17554575"/>
+          <a:ext cx="2762250" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 129568"/>
+            <a:gd name="adj4" fmla="val -31512"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>初期表示は、この辺りに表示されます。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>212131</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>210952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E9C5484-4FAB-48E1-BF28-0DF1A579B5FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="34842450"/>
+          <a:ext cx="6384331" cy="3468502"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{063991BA-7560-4A65-93A7-E794BDD1ED32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="36909375"/>
+          <a:ext cx="5819775" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1540,17 +1995,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>401598</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66991</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>534448</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>67954</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="23" name="図 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479D704D-3BCD-4FAB-B477-02E3A979500A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0989AC20-CF70-4BC0-8B91-FD295776C5BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1567,7 +2022,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="685800" y="714375"/>
-          <a:ext cx="3830598" cy="781366"/>
+          <a:ext cx="2591848" cy="3163579"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1578,16 +2033,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1602,7 +2057,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3571875" y="1114425"/>
+          <a:off x="2047875" y="3152775"/>
           <a:ext cx="876300" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1646,13 +2101,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>3605</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>116272</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1690,13 +2145,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1756,13 +2211,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>420379</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>67280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1805,13 +2260,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>30936</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>116049</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1854,13 +2309,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1920,13 +2375,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1986,13 +2441,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2044,13 +2499,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2123,13 +2578,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>125366</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2172,13 +2627,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2238,13 +2693,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2304,13 +2759,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>252412</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2362,13 +2817,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>219076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2689,7 +3144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -2738,188 +3193,202 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB0CF69-A17C-4001-A4E4-EDDA267FF8CE}">
-  <dimension ref="C2:G112"/>
+  <dimension ref="C2:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E24" t="s">
         <v>9</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="D27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="F17" t="s">
+      <c r="E27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="D19" t="s">
+      <c r="F27" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
         <v>12</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="F19">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="E20" t="s">
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C23" t="s">
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F32" t="s">
         <v>15</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" t="s">
-        <v>39</v>
-      </c>
-      <c r="F49" t="s">
-        <v>40</v>
-      </c>
-      <c r="G49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C53" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C55" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C57" t="s">
         <v>35</v>
+      </c>
+      <c r="D57" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C58" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="64" spans="3:7" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C76" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C114" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C116" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C118" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C69" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C70" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C106" t="s">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C120" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C108" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C110" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C112" s="5" t="s">
-        <v>30</v>
+    <row r="143" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C145" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C163" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2932,7 +3401,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2106142D-82AA-4EE0-AA92-E0E50F294B24}">
-  <dimension ref="B2:B73"/>
+  <dimension ref="B2:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2940,27 +3409,27 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B83" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B73" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Auto_mrkr/仕様書.xlsx
+++ b/Auto_mrkr/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Auto_mrkr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E19C63B-8C34-45C9-95E6-D5DA8F0C19EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50DA4DC-4E4C-4654-AA6C-7F2CBD2FD9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ツール情報" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>■機能</t>
     <rPh sb="1" eb="3">
@@ -143,131 +143,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>投稿開始</t>
-    <rPh sb="0" eb="2">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指定時間および回数に設定した情報で下書きデータを投稿していきます。</t>
-    <rPh sb="0" eb="2">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>トウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※一度ツールを起動すると、現在の時間をプログラム内で取得します。</t>
-    <rPh sb="1" eb="3">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>取得した時間が、指定時間ではない場合「40秒」プログラムが待機状態になります。</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>タイキ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40秒後、再度時間取得して再チェックしていく為、指定時間になっても稼働しない場合は少しお待ちください。</t>
-    <rPh sb="2" eb="4">
-      <t>ビョウゴ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>カドウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>マ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【注意事項】</t>
     <rPh sb="1" eb="5">
       <t>チュウイジコウ</t>
@@ -464,27 +339,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ポジション取得</t>
-    <rPh sb="5" eb="7">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⇒</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マウスのポジション（カーソルの座標）を取得</t>
-    <rPh sb="15" eb="17">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※取得詳細については、マウスポジションシート参照してください。</t>
     <rPh sb="1" eb="3">
       <t>シュトク</t>
@@ -498,16 +352,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■マウスポジション（座標）取得</t>
-    <rPh sb="10" eb="12">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>①ポジション取得ボタンを押下</t>
     <rPh sb="6" eb="8">
       <t>シュトク</t>
@@ -600,20 +444,159 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■ツールを途中で停止する場合</t>
-    <rPh sb="5" eb="7">
-      <t>トチュウ</t>
+    <t>状況表示</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⇒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稼働中　または　停止中　または　座標取得中</t>
+    <rPh sb="0" eb="3">
+      <t>カドウチュウ</t>
     </rPh>
     <rPh sb="8" eb="10">
       <t>テイシ</t>
     </rPh>
-    <rPh sb="12" eb="14">
+    <rPh sb="10" eb="11">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>シュトクチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン種類</t>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稼働開始</t>
+    <rPh sb="0" eb="2">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：時間と回数情報を取得して、下書きを自動投稿していきます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：稼働を一時的に停止することが可能（時間や回数を設定し直す時は、ストップを押して再設定後、稼働開始を押してください。）</t>
+    <rPh sb="1" eb="3">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>イチジテキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座標取得</t>
+    <rPh sb="0" eb="2">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：10秒～15秒後に現在のカーソルがある位置の座標をxとyで座標を取得します。</t>
+    <rPh sb="3" eb="4">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ビョウゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ツールを強制終了する場合</t>
+    <rPh sb="5" eb="9">
+      <t>キョウセイシュウリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
       <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>黒い画面でctrl + cを押すと、上記赤枠の英文が表示され、ツールが再度使えるようになります。</t>
+    <t>黒い画面でctrl + cを押すと、上記赤枠の英文が表示され、ツールが強制終了されます。</t>
     <rPh sb="0" eb="1">
       <t>クロ</t>
     </rPh>
@@ -636,10 +619,97 @@
       <t>ヒョウジ</t>
     </rPh>
     <rPh sb="35" eb="37">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ツカ</t>
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツールを終了する場合は、ストップボタンを押して、③の状況が「停止中」になってることを確認して</t>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右上の「×」を押してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※稼働中に「×」を押すと、ツールがフリーズしてしまい、強制プログラムを強制終了しないといけなくなるのでご注意ください。</t>
+    <rPh sb="1" eb="3">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■座標（マウスポジション）取得</t>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツール名は「MATT」になります。</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⇒　メルカリ自動出品ツール（Mercari Automated Listing Tool）の略</t>
+    <rPh sb="6" eb="8">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュッピン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>リャク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -648,7 +718,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,6 +744,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -709,16 +788,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -742,21 +822,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>534448</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>401598</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>67954</xdr:rowOff>
+      <xdr:rowOff>115309</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="図 18">
+        <xdr:cNvPr id="11" name="図 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56F981D1-091D-4233-87FF-9054C33AEC56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F8A020-5D49-49E5-94B4-794410975733}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -773,7 +853,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1371600" y="1905000"/>
-          <a:ext cx="2591848" cy="3163579"/>
+          <a:ext cx="3830598" cy="2496559"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -786,13 +866,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -866,13 +946,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -944,16 +1024,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -968,7 +1048,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828801" y="4705350"/>
+          <a:off x="4924426" y="2428875"/>
           <a:ext cx="228600" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1026,13 +1106,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>354786</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>49374</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1075,13 +1155,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1141,13 +1221,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1225,13 +1305,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1273,13 +1353,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>354786</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>39849</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1322,13 +1402,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1388,13 +1468,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>146248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>283620</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>32542</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1437,13 +1517,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>134513</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>66991</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1479,16 +1559,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1503,7 +1583,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3114676" y="4705350"/>
+          <a:off x="4924426" y="3390900"/>
           <a:ext cx="228600" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1561,13 +1641,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1627,13 +1707,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1691,23 +1771,199 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>212131</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>210952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E9C5484-4FAB-48E1-BF28-0DF1A579B5FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="34842450"/>
+          <a:ext cx="6384331" cy="3468502"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{063991BA-7560-4A65-93A7-E794BDD1ED32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="36909375"/>
+          <a:ext cx="5819775" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>212071</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C2AE712-C31C-431E-B135-E5E9D72A1915}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="2743200"/>
+          <a:ext cx="885825" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>592003</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>172997</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>162933</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="図 21">
+        <xdr:cNvPr id="28" name="図 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B47C9A5-50B3-4BB1-9945-E73A547F6DC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CAB7F4A-098C-49E0-A373-85EC98476638}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,8 +1979,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5648325" y="19650075"/>
-          <a:ext cx="1047750" cy="1278871"/>
+          <a:off x="5392603" y="20288249"/>
+          <a:ext cx="1638394" cy="1067809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1735,16 +1991,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1759,8 +2015,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5562601" y="19592925"/>
-          <a:ext cx="1247774" cy="1409700"/>
+          <a:off x="5343525" y="20202525"/>
+          <a:ext cx="1771650" cy="1247775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1803,13 +2059,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1872,116 +2128,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>212131</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>210952</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E9C5484-4FAB-48E1-BF28-0DF1A579B5FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="34842450"/>
-          <a:ext cx="6384331" cy="3468502"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{063991BA-7560-4A65-93A7-E794BDD1ED32}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1381125" y="36909375"/>
-          <a:ext cx="5819775" cy="1304925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1995,17 +2141,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>534448</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>67954</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401598</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>115309</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22">
+        <xdr:cNvPr id="20" name="図 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0989AC20-CF70-4BC0-8B91-FD295776C5BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E14BF79-9528-4D1A-A19B-913227DAA19A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2022,7 +2168,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="685800" y="714375"/>
-          <a:ext cx="2591848" cy="3163579"/>
+          <a:ext cx="3830598" cy="2496559"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2033,16 +2179,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2057,8 +2203,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="3152775"/>
-          <a:ext cx="876300" cy="333375"/>
+          <a:off x="3276600" y="2581276"/>
+          <a:ext cx="952500" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2874,6 +3020,50 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>353225</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3717F5AB-EFDD-4888-9A21-0D0DB6DB03DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="6286500"/>
+          <a:ext cx="4077500" cy="2657475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3144,7 +3334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -3193,9 +3383,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB0CF69-A17C-4001-A4E4-EDDA267FF8CE}">
-  <dimension ref="C2:G163"/>
+  <dimension ref="C2:I170"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -3206,191 +3396,221 @@
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C6" s="3" t="s">
-        <v>20</v>
+      <c r="C5" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="21" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C24" t="s">
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C8" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C9" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C10" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
         <v>6</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D27" t="s">
         <v>8</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F27" t="s">
         <v>9</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="G60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="G61" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="F28" s="2"/>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C57" t="s">
-        <v>35</v>
-      </c>
-      <c r="D57" t="s">
-        <v>36</v>
-      </c>
-      <c r="F57" t="s">
-        <v>37</v>
-      </c>
-      <c r="G57" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C58" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="3:7" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C61" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C63" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C64" t="s">
-        <v>32</v>
-      </c>
-    </row>
+    <row r="64" spans="3:8" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="66" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C71" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C79" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C81" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C76" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C77" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C78" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C114" t="s">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C82" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C116" t="s">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C83" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C118" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C120" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="143" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C145" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C163" t="s">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C119" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C121" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C123" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C125" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C150" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C168" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3409,27 +3629,27 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Auto_mrkr/仕様書.xlsx
+++ b/Auto_mrkr/仕様書.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Auto_mrkr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50DA4DC-4E4C-4654-AA6C-7F2CBD2FD9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24652384-4ED3-437F-9CEB-159B0D0EB4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ツール情報" sheetId="1" r:id="rId1"/>
-    <sheet name="ツール説明" sheetId="2" r:id="rId2"/>
-    <sheet name="マウスポジション" sheetId="3" r:id="rId3"/>
+    <sheet name="バージョン情報" sheetId="4" r:id="rId1"/>
+    <sheet name="ツール情報" sheetId="1" r:id="rId2"/>
+    <sheet name="ツール説明" sheetId="2" r:id="rId3"/>
+    <sheet name="マウスポジション" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>■機能</t>
     <rPh sb="1" eb="3">
@@ -710,6 +711,277 @@
     </rPh>
     <rPh sb="46" eb="47">
       <t>リャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■時間・回数自動記録</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【投稿開始】ボタンを押した時点で、時間と回数がsetフォルダーのsetfile.csvに記録されます。</t>
+    <rPh sb="1" eb="3">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツールを一度落として、再度立ち上げても前回設定した時間と回数で立ち上がるようにしております。</t>
+    <rPh sb="4" eb="6">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※setfile.csvを直接修正すると、次回以降修正した数値でツールが立ち上がりますので、ご注意ください。</t>
+    <rPh sb="15" eb="17">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジカイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ver1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更情報</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モック作成</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有効期限追加
+マウスポジション取得ボタン追加
+ディレクトリー構成変更</t>
+    <rPh sb="0" eb="4">
+      <t>ユウコウキゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ver1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間 / 回数を5パターンに変更</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ver1.2</t>
+  </si>
+  <si>
+    <t>ボタンステータスを切り替わるように改良
+・稼働ボタン
+・停止ボタン
+・座標取得ボタン
+追加</t>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイリョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ver2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ver2.1</t>
+  </si>
+  <si>
+    <t>待ち時間を外部ファイル化</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ver2.2</t>
+  </si>
+  <si>
+    <t>Ver2.3</t>
+  </si>
+  <si>
+    <t>下書きがない場合の処理修正</t>
+    <rPh sb="0" eb="2">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間・回数を自動記録するように修正</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -759,15 +1031,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -784,11 +1062,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -799,6 +1092,16 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2123,6 +2426,248 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>初期表示は、この辺りに表示されます。</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>401598</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>115309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B0666C-C99D-455D-8709-2CADB7CB2C11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="41195625"/>
+          <a:ext cx="3830598" cy="2496559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F0680A-983F-4DFC-A5E6-3A7F1E9610F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019550" y="42129075"/>
+          <a:ext cx="857250" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA1A463C-CE70-4574-A340-922285C1A4E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085975" y="41605200"/>
+          <a:ext cx="581025" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67E3AA82-A676-495D-9B43-33385A0B96FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3114675" y="41605200"/>
+          <a:ext cx="504825" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3331,6 +3876,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB372ACD-A7ED-46B1-9B48-4DB37FCDF7F8}">
+  <dimension ref="B3:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="54.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="90.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B13"/>
   <sheetViews>
@@ -3381,11 +4009,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB0CF69-A17C-4001-A4E4-EDDA267FF8CE}">
-  <dimension ref="C2:I170"/>
+  <dimension ref="C2:I188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -3611,6 +4241,26 @@
       </c>
     </row>
     <row r="170" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C172" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C185" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C186" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C188" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3619,7 +4269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2106142D-82AA-4EE0-AA92-E0E50F294B24}">
   <dimension ref="B2:B83"/>
   <sheetViews>

--- a/Auto_mrkr/仕様書.xlsx
+++ b/Auto_mrkr/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Auto_mrkr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24652384-4ED3-437F-9CEB-159B0D0EB4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82803EA-149E-44D4-B92E-298D88B1C748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="180" windowWidth="14700" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="バージョン情報" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t>■機能</t>
     <rPh sb="1" eb="3">
@@ -982,6 +982,43 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ver2.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期表示位置を外部ファイル化
+ツール動作時マウスを少し動かす
+└スクリーンセーバー対策</t>
+    <rPh sb="0" eb="4">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>タイサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1081,7 +1118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1101,6 +1138,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3877,7 +3917,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB372ACD-A7ED-46B1-9B48-4DB37FCDF7F8}">
-  <dimension ref="B3:C10"/>
+  <dimension ref="B3:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3949,6 +3989,14 @@
       </c>
       <c r="C10" s="9" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="54.75" x14ac:dyDescent="0.4">
+      <c r="B11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Auto_mrkr/仕様書.xlsx
+++ b/Auto_mrkr/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Auto_mrkr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82803EA-149E-44D4-B92E-298D88B1C748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4E5D85-8289-45C2-B9F0-AB30DE3CFBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="180" windowWidth="14700" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="バージョン情報" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>■機能</t>
     <rPh sb="1" eb="3">
@@ -691,13 +691,6 @@
     <t>■座標（マウスポジション）取得</t>
     <rPh sb="13" eb="15">
       <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツール名は「MATT」になります。</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1022,12 +1015,35 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ツール名は「MALT」になります。</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※スクリーンセーバー対策の為、ツール稼働時にマウスが少し動きます。</t>
+    <rPh sb="10" eb="12">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,6 +1081,13 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1118,7 +1141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1142,6 +1165,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1648,13 +1672,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1696,13 +1720,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>354786</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>39849</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1745,13 +1769,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2116,13 +2140,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>212131</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>210952</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2160,13 +2184,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2475,13 +2499,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>401598</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>115309</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2519,13 +2543,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2585,13 +2609,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2651,13 +2675,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3919,7 +3943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB372ACD-A7ED-46B1-9B48-4DB37FCDF7F8}">
   <dimension ref="B3:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3929,74 +3953,74 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="54.75" x14ac:dyDescent="0.4">
       <c r="B5" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="90.75" x14ac:dyDescent="0.4">
       <c r="B7" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="54.75" x14ac:dyDescent="0.4">
       <c r="B11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4010,7 +4034,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -4059,11 +4085,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB0CF69-A17C-4001-A4E4-EDDA267FF8CE}">
-  <dimension ref="C2:I188"/>
+  <dimension ref="C2:I192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -4074,12 +4098,12 @@
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C5" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.4">
@@ -4257,56 +4281,61 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C119" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C121" t="s">
-        <v>20</v>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C102" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C123" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C125" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C127" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C125" s="4" t="s">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C129" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C150" t="s">
+    <row r="152" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C154" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C168" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="170" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="172" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C172" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C176" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C189" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C185" t="s">
+    <row r="190" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C190" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C186" t="s">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C192" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C188" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Auto_mrkr/仕様書.xlsx
+++ b/Auto_mrkr/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Auto_mrkr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4E5D85-8289-45C2-B9F0-AB30DE3CFBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DA3142-7555-4E92-A0AC-F097DF1B6817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="バージョン情報" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
   <si>
     <t>■機能</t>
     <rPh sb="1" eb="3">
@@ -1035,6 +1035,230 @@
     </rPh>
     <rPh sb="28" eb="29">
       <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ver2.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>draft_check_x</t>
+  </si>
+  <si>
+    <t>draft_check_y</t>
+  </si>
+  <si>
+    <t>draft_up_x</t>
+  </si>
+  <si>
+    <t>draft_up_y</t>
+  </si>
+  <si>
+    <t>page_load_time</t>
+  </si>
+  <si>
+    <t>action_wait</t>
+  </si>
+  <si>
+    <t>first_x</t>
+  </si>
+  <si>
+    <t>first_y</t>
+  </si>
+  <si>
+    <t>mouse_time</t>
+  </si>
+  <si>
+    <t>＝</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下書き存在有無座標（縦）</t>
+    <rPh sb="10" eb="11">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下書き存在有無座標（横）</t>
+    <rPh sb="10" eb="11">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下書き一番上のデータ座標（縦）</t>
+    <rPh sb="13" eb="14">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下書き一番上のデータ座標（横）</t>
+    <rPh sb="13" eb="14">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページロード時間</t>
+  </si>
+  <si>
+    <t>各処理の待ち時間</t>
+  </si>
+  <si>
+    <t>初期表示位置（縦）</t>
+    <rPh sb="7" eb="8">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期表示位置（横）</t>
+    <rPh sb="7" eb="8">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンセーバー起動前にマウスを動かす</t>
+  </si>
+  <si>
+    <t>※分単位</t>
+    <rPh sb="1" eb="2">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>└タイミング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・URLに遷移する時（新規タブオープン時）</t>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・キャッシュクリア後</t>
+    <rPh sb="9" eb="10">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・下書き商品があるか確認時</t>
+    <rPh sb="1" eb="3">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・下書き商品のクリック後</t>
+    <rPh sb="1" eb="3">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・出品ボタン押下後</t>
+    <rPh sb="1" eb="3">
+      <t>シュッピン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>オウカゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記処理以外の処理の時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウス動作時間を外部ファイル化
+※定期的にマウスを少し動かす
+└スクリーンセーバー対策
+⇒config.iniの内容説明を「ツール説明」シートに記載</t>
+    <rPh sb="3" eb="5">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>テイキテキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>キサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1141,7 +1365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1166,6 +1390,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2735,6 +2960,55 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>649067</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>48888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2882D375-10C7-45F2-8CAB-CE4F8C2BB6D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867525" y="2638425"/>
+          <a:ext cx="3382742" cy="3125463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3941,9 +4215,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB372ACD-A7ED-46B1-9B48-4DB37FCDF7F8}">
-  <dimension ref="B3:C11"/>
+  <dimension ref="B3:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4021,6 +4295,14 @@
       </c>
       <c r="C11" s="12" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="90.75" x14ac:dyDescent="0.4">
+      <c r="B12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4085,62 +4367,150 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB0CF69-A17C-4001-A4E4-EDDA267FF8CE}">
-  <dimension ref="C2:I192"/>
+  <dimension ref="C2:V192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C5" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C8" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C9" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C10" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="21" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="22" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:20" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="3:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Q12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Q13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="3:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Q15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Q16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="3:22" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="3:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Q18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Q19" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="R20" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="R21" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="R22" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="R23" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="R24" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="Q26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>6</v>
       </c>
@@ -4153,8 +4523,22 @@
       <c r="G27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="Q27" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="R28" t="s">
+        <v>105</v>
+      </c>
+      <c r="V28" s="5"/>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.4">
       <c r="G29" t="s">
         <v>10</v>
       </c>
@@ -4164,11 +4548,58 @@
       <c r="I29" s="2">
         <v>0.45833333333333331</v>
       </c>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="V29" s="5"/>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="Q30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.4">
       <c r="F31" s="2"/>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="Q31" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="Q33" t="s">
+        <v>87</v>
+      </c>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U33" s="5"/>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
         <v>12</v>
       </c>
@@ -4181,8 +4612,11 @@
       <c r="G34" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="T34" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.4">
       <c r="G35" t="s">
         <v>15</v>
       </c>
